--- a/batcaverna/planilhas/Projeto_Tarefas_04_02_2026.xlsx
+++ b/batcaverna/planilhas/Projeto_Tarefas_04_02_2026.xlsx
@@ -46,91 +46,91 @@
     <t>Sim</t>
   </si>
   <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento em Python, JS e Rust </t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Alinhamento Espiritual + Diário Caligrafia + Frase do Dia</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>Treino físico / Alongamento - Matinal</t>
+  </si>
+  <si>
+    <t>Saúde/Físico</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>Kanban + SCRUM - Segunda/Sexta - Planejamento</t>
+  </si>
+  <si>
+    <t>Planejamento financeiro</t>
+  </si>
+  <si>
+    <t>Pessoal/Espiritual</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>VB Organon - Case Manager (.dat, .dut, .spt, .PWF)</t>
+  </si>
+  <si>
+    <t>Leitura de livros de Física 3</t>
+  </si>
+  <si>
+    <t>Profissional/Estudo</t>
+  </si>
+  <si>
+    <t>“Eat the Frog” – tarefa principal (código ou estudo)</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>Projeto técnico / Debug / NextJS + HTML Apps</t>
+  </si>
+  <si>
+    <t>Projeto ONS - Perdas Duplas Lts</t>
+  </si>
+  <si>
+    <t>Projeto ONS - VC AnaRede e OneNote Mensal</t>
+  </si>
+  <si>
+    <t>Projeto ONS - VC Intercambios + Kanban</t>
+  </si>
+  <si>
+    <t>Pausa com leitura ou vídeo inspirador</t>
+  </si>
+  <si>
+    <t>Pausa/Descanso</t>
+  </si>
+  <si>
+    <t>Estudo ou coding intenso (Eng Elétrica /IA e Automações/ FrontEnd)</t>
+  </si>
+  <si>
+    <t>Treino de calistenia + Alongamento + ABS (20 min)</t>
+  </si>
+  <si>
+    <t>Reuniões / Debugs / Organização</t>
+  </si>
+  <si>
+    <t>Projeto criativo ou tutorial IA</t>
+  </si>
+  <si>
     <t>2026-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento em Python, JS e Rust </t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>Alinhamento Espiritual + Diário Caligrafia + Frase do Dia</t>
-  </si>
-  <si>
-    <t>2026-02-04</t>
-  </si>
-  <si>
-    <t>Treino físico / Alongamento - Matinal</t>
-  </si>
-  <si>
-    <t>Saúde/Físico</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>Kanban + SCRUM - Segunda/Sexta - Planejamento</t>
-  </si>
-  <si>
-    <t>Planejamento financeiro</t>
-  </si>
-  <si>
-    <t>Pessoal/Espiritual</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>VB Organon - Case Manager (.dat, .dut, .spt, .PWF)</t>
-  </si>
-  <si>
-    <t>Leitura de livros de Física 3</t>
-  </si>
-  <si>
-    <t>Profissional/Estudo</t>
-  </si>
-  <si>
-    <t>“Eat the Frog” – tarefa principal (código ou estudo)</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>Projeto técnico / Debug / NextJS + HTML Apps</t>
-  </si>
-  <si>
-    <t>Projeto ONS - Perdas Duplas Lts</t>
-  </si>
-  <si>
-    <t>Projeto ONS - VC AnaRede e OneNote Mensal</t>
-  </si>
-  <si>
-    <t>Projeto ONS - VC Intercambios + Kanban</t>
-  </si>
-  <si>
-    <t>Pausa com leitura ou vídeo inspirador</t>
-  </si>
-  <si>
-    <t>Pausa/Descanso</t>
-  </si>
-  <si>
-    <t>Estudo ou coding intenso (Eng Elétrica /IA e Automações/ FrontEnd)</t>
-  </si>
-  <si>
-    <t>Treino de calistenia + Alongamento + ABS (20 min)</t>
-  </si>
-  <si>
-    <t>Reuniões / Debugs / Organização</t>
-  </si>
-  <si>
-    <t>Projeto criativo ou tutorial IA</t>
   </si>
   <si>
     <t>Treino leve ou hobby relaxante</t>
@@ -558,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -576,31 +576,31 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -612,31 +612,31 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -648,31 +648,31 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -684,16 +684,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -702,13 +702,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -717,16 +717,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -738,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -756,52 +756,52 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -810,13 +810,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -825,28 +825,28 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -855,16 +855,16 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -873,16 +873,16 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -900,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -918,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1"/>
     </row>

--- a/batcaverna/planilhas/Projeto_Tarefas_04_02_2026.xlsx
+++ b/batcaverna/planilhas/Projeto_Tarefas_04_02_2026.xlsx
@@ -34,7 +34,7 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>Reunião Inicial All Handss</t>
+    <t>Reunião Inicial All Hands</t>
   </si>
   <si>
     <t xml:space="preserve">ONS </t>
@@ -498,7 +498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="58.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="62.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
